--- a/medicine/Psychotrope/Oktoberfest_Manager/Oktoberfest_Manager.xlsx
+++ b/medicine/Psychotrope/Oktoberfest_Manager/Oktoberfest_Manager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oktoberfest Manager est un jeu de simulation allemand développé par United Soft Media (USM, société éditrice de jeux vidéo basée à Munich) dont le principe est de se glisser virtuellement dans la peau du « roi de la Fête de la bière » lors de La Fête de la bière (Oktoberfest en allemand)[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oktoberfest Manager est un jeu de simulation allemand développé par United Soft Media (USM, société éditrice de jeux vidéo basée à Munich) dont le principe est de se glisser virtuellement dans la peau du « roi de la Fête de la bière » lors de La Fête de la bière (Oktoberfest en allemand).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les fonctionnalités, sont notables[réf. souhaitée] le choix des fournisseurs, l'achat de la tente, sa température pour la consommation, le recrutement des serveuses ou d'un homme de l'ombre, ou encore la fabrication du mélange.
 </t>
